--- a/tests/data/desired/result-row-rdc-fail-report.xlsx
+++ b/tests/data/desired/result-row-rdc-fail-report.xlsx
@@ -232,7 +232,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>960.0</v>
+        <v>39.0</v>
       </c>
       <c r="C6" t="n" s="3">
         <v>0.03903903903903904</v>
@@ -254,7 +254,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C8" t="n" s="3">
         <v>0.9927611168562565</v>
@@ -287,7 +287,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="C11" t="n" s="3">
         <v>0.967741935483871</v>

--- a/tests/data/desired/result-row-rdc-fail-report.xlsx
+++ b/tests/data/desired/result-row-rdc-fail-report.xlsx
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -83,10 +83,20 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,7 +104,9 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -103,7 +115,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="55"/>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -112,18 +129,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -140,10 +147,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
